--- a/biology/Virologie/Oryzavirus/Oryzavirus.xlsx
+++ b/biology/Virologie/Oryzavirus/Oryzavirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fijivirus est un genre de virus de la famille des Reoviridae, sous-famille des Spinareovirinae, qui comprend neuf espèces acceptées par l'ICTV. Ce sont des virus à ARN à double brin classés dans le groupe III de la classification Baltimore. 
-Les Oryzavirus infectent les plantes de la famille des Poaceae, provoquant des maladies chez le riz (RRSV) et diverses espèces du genre Echinochloa (ERSV)[2].  
-La transmission se fait, selon un mode persistant, par l'intermédiaire d'insectes vecteurs de la famille des Delphacidae qui se nourrissent du phloème : Nilaparvata lugens pour le RRSV, Sogatella longifurcifera et Sogatella vibix pour l'ERSV. Les virus se répliquent aussi dans l'organisme des insectes[2].
+Les Oryzavirus infectent les plantes de la famille des Poaceae, provoquant des maladies chez le riz (RRSV) et diverses espèces du genre Echinochloa (ERSV).  
+La transmission se fait, selon un mode persistant, par l'intermédiaire d'insectes vecteurs de la famille des Delphacidae qui se nourrissent du phloème : Nilaparvata lugens pour le RRSV, Sogatella longifurcifera et Sogatella vibix pour l'ERSV. Les virus se répliquent aussi dans l'organisme des insectes.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (3 février 2021)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (3 février 2021) :
 Rice ragged stunt virus (RRSV)
 Echinochloa ragged stunt virus (ERSV)</t>
         </is>
